--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2893806489865</v>
+        <v>11.967216</v>
       </c>
       <c r="H2">
-        <v>11.2893806489865</v>
+        <v>35.90164799999999</v>
       </c>
       <c r="I2">
-        <v>0.05896998432356388</v>
+        <v>0.0622017763145573</v>
       </c>
       <c r="J2">
-        <v>0.05896998432356388</v>
+        <v>0.0622017763145573</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N2">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O2">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P2">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q2">
-        <v>553.7505473875708</v>
+        <v>619.686682081472</v>
       </c>
       <c r="R2">
-        <v>553.7505473875708</v>
+        <v>5577.180138733247</v>
       </c>
       <c r="S2">
-        <v>0.04437198591723993</v>
+        <v>0.04480353603960224</v>
       </c>
       <c r="T2">
-        <v>0.04437198591723993</v>
+        <v>0.04480353603960224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2893806489865</v>
+        <v>11.967216</v>
       </c>
       <c r="H3">
-        <v>11.2893806489865</v>
+        <v>35.90164799999999</v>
       </c>
       <c r="I3">
-        <v>0.05896998432356388</v>
+        <v>0.0622017763145573</v>
       </c>
       <c r="J3">
-        <v>0.05896998432356388</v>
+        <v>0.0622017763145573</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N3">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O3">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P3">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q3">
-        <v>116.9993666439434</v>
+        <v>124.22361137056</v>
       </c>
       <c r="R3">
-        <v>116.9993666439434</v>
+        <v>1118.01250233504</v>
       </c>
       <c r="S3">
-        <v>0.009375149647333015</v>
+        <v>0.008981404974391063</v>
       </c>
       <c r="T3">
-        <v>0.009375149647333015</v>
+        <v>0.008981404974391063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2893806489865</v>
+        <v>11.967216</v>
       </c>
       <c r="H4">
-        <v>11.2893806489865</v>
+        <v>35.90164799999999</v>
       </c>
       <c r="I4">
-        <v>0.05896998432356388</v>
+        <v>0.0622017763145573</v>
       </c>
       <c r="J4">
-        <v>0.05896998432356388</v>
+        <v>0.0622017763145573</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N4">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O4">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P4">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q4">
-        <v>5.899557907495337</v>
+        <v>6.262480034447999</v>
       </c>
       <c r="R4">
-        <v>5.899557907495337</v>
+        <v>56.36232031003199</v>
       </c>
       <c r="S4">
-        <v>0.0004727310909656001</v>
+        <v>0.0004527792157453394</v>
       </c>
       <c r="T4">
-        <v>0.0004727310909656001</v>
+        <v>0.0004527792157453394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2893806489865</v>
+        <v>11.967216</v>
       </c>
       <c r="H5">
-        <v>11.2893806489865</v>
+        <v>35.90164799999999</v>
       </c>
       <c r="I5">
-        <v>0.05896998432356388</v>
+        <v>0.0622017763145573</v>
       </c>
       <c r="J5">
-        <v>0.05896998432356388</v>
+        <v>0.0622017763145573</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N5">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O5">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P5">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q5">
-        <v>3.88882954371619</v>
+        <v>42.028575378816</v>
       </c>
       <c r="R5">
-        <v>3.88882954371619</v>
+        <v>378.257178409344</v>
       </c>
       <c r="S5">
-        <v>0.0003116115921914382</v>
+        <v>0.0030386788132238</v>
       </c>
       <c r="T5">
-        <v>0.0003116115921914382</v>
+        <v>0.0030386788132238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2893806489865</v>
+        <v>11.967216</v>
       </c>
       <c r="H6">
-        <v>11.2893806489865</v>
+        <v>35.90164799999999</v>
       </c>
       <c r="I6">
-        <v>0.05896998432356388</v>
+        <v>0.0622017763145573</v>
       </c>
       <c r="J6">
-        <v>0.05896998432356388</v>
+        <v>0.0622017763145573</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.90650227093117</v>
+        <v>5.692542</v>
       </c>
       <c r="N6">
-        <v>4.90650227093117</v>
+        <v>17.077626</v>
       </c>
       <c r="O6">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663461</v>
       </c>
       <c r="P6">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663462</v>
       </c>
       <c r="Q6">
-        <v>55.39137179165866</v>
+        <v>68.12387970307199</v>
       </c>
       <c r="R6">
-        <v>55.39137179165866</v>
+        <v>613.114917327648</v>
       </c>
       <c r="S6">
-        <v>0.004438506075833897</v>
+        <v>0.004925377271594862</v>
       </c>
       <c r="T6">
-        <v>0.004438506075833897</v>
+        <v>0.004925377271594863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>175.357083303403</v>
+        <v>175.4151816666667</v>
       </c>
       <c r="H7">
-        <v>175.357083303403</v>
+        <v>526.245545</v>
       </c>
       <c r="I7">
-        <v>0.9159762412968069</v>
+        <v>0.9117522314469324</v>
       </c>
       <c r="J7">
-        <v>0.9159762412968069</v>
+        <v>0.9117522314469324</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N7">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O7">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P7">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q7">
-        <v>8601.364759214204</v>
+        <v>9083.353380914603</v>
       </c>
       <c r="R7">
-        <v>8601.364759214204</v>
+        <v>81750.18042823143</v>
       </c>
       <c r="S7">
-        <v>0.6892266522632842</v>
+        <v>0.6567292187001449</v>
       </c>
       <c r="T7">
-        <v>0.6892266522632842</v>
+        <v>0.6567292187001449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>175.357083303403</v>
+        <v>175.4151816666667</v>
       </c>
       <c r="H8">
-        <v>175.357083303403</v>
+        <v>526.245545</v>
       </c>
       <c r="I8">
-        <v>0.9159762412968069</v>
+        <v>0.9117522314469324</v>
       </c>
       <c r="J8">
-        <v>0.9159762412968069</v>
+        <v>0.9117522314469324</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N8">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O8">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P8">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q8">
-        <v>1817.342183857469</v>
+        <v>1820.866887992678</v>
       </c>
       <c r="R8">
-        <v>1817.342183857469</v>
+        <v>16387.8019919341</v>
       </c>
       <c r="S8">
-        <v>0.1456234800477592</v>
+        <v>0.1316492311331819</v>
       </c>
       <c r="T8">
-        <v>0.1456234800477592</v>
+        <v>0.1316492311331819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>175.357083303403</v>
+        <v>175.4151816666667</v>
       </c>
       <c r="H9">
-        <v>175.357083303403</v>
+        <v>526.245545</v>
       </c>
       <c r="I9">
-        <v>0.9159762412968069</v>
+        <v>0.9117522314469324</v>
       </c>
       <c r="J9">
-        <v>0.9159762412968069</v>
+        <v>0.9117522314469324</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N9">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O9">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P9">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q9">
-        <v>91.63738026060661</v>
+        <v>91.79529081171165</v>
       </c>
       <c r="R9">
-        <v>91.63738026060661</v>
+        <v>826.157617305405</v>
       </c>
       <c r="S9">
-        <v>0.007342895759831195</v>
+        <v>0.006636827511499716</v>
       </c>
       <c r="T9">
-        <v>0.007342895759831195</v>
+        <v>0.006636827511499716</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>175.357083303403</v>
+        <v>175.4151816666667</v>
       </c>
       <c r="H10">
-        <v>175.357083303403</v>
+        <v>526.245545</v>
       </c>
       <c r="I10">
-        <v>0.9159762412968069</v>
+        <v>0.9117522314469324</v>
       </c>
       <c r="J10">
-        <v>0.9159762412968069</v>
+        <v>0.9117522314469324</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N10">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O10">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P10">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q10">
-        <v>60.40489088401806</v>
+        <v>616.0539080489733</v>
       </c>
       <c r="R10">
-        <v>60.40489088401806</v>
+        <v>5544.48517244076</v>
       </c>
       <c r="S10">
-        <v>0.00484023894925765</v>
+        <v>0.04454088536952153</v>
       </c>
       <c r="T10">
-        <v>0.00484023894925765</v>
+        <v>0.04454088536952153</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>175.357083303403</v>
+        <v>175.4151816666667</v>
       </c>
       <c r="H11">
-        <v>175.357083303403</v>
+        <v>526.245545</v>
       </c>
       <c r="I11">
-        <v>0.9159762412968069</v>
+        <v>0.9117522314469324</v>
       </c>
       <c r="J11">
-        <v>0.9159762412968069</v>
+        <v>0.9117522314469324</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.90650227093117</v>
+        <v>5.692542</v>
       </c>
       <c r="N11">
-        <v>4.90650227093117</v>
+        <v>17.077626</v>
       </c>
       <c r="O11">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663461</v>
       </c>
       <c r="P11">
-        <v>0.07526720799992327</v>
+        <v>0.07918386842663462</v>
       </c>
       <c r="Q11">
-        <v>860.389927452013</v>
+        <v>998.55828907513</v>
       </c>
       <c r="R11">
-        <v>860.389927452013</v>
+        <v>8987.02460167617</v>
       </c>
       <c r="S11">
-        <v>0.06894297427667467</v>
+        <v>0.0721960687325844</v>
       </c>
       <c r="T11">
-        <v>0.06894297427667467</v>
+        <v>0.07219606873258441</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>4.79636545455954</v>
+        <v>0.03130466666666667</v>
       </c>
       <c r="H12">
-        <v>4.79636545455954</v>
+        <v>0.093914</v>
       </c>
       <c r="I12">
-        <v>0.02505377437962918</v>
+        <v>0.0001627116844554137</v>
       </c>
       <c r="J12">
-        <v>0.02505377437962918</v>
+        <v>0.0001627116844554137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.05056925663</v>
+        <v>51.78202533333334</v>
       </c>
       <c r="N12">
-        <v>49.05056925663</v>
+        <v>155.346076</v>
       </c>
       <c r="O12">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="P12">
-        <v>0.7524503597249437</v>
+        <v>0.7202935140152373</v>
       </c>
       <c r="Q12">
-        <v>235.2644559089804</v>
+        <v>1.621019042384889</v>
       </c>
       <c r="R12">
-        <v>235.2644559089804</v>
+        <v>14.589171381464</v>
       </c>
       <c r="S12">
-        <v>0.01885172154441955</v>
+        <v>0.0001172001709677284</v>
       </c>
       <c r="T12">
-        <v>0.01885172154441955</v>
+        <v>0.0001172001709677284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>4.79636545455954</v>
+        <v>0.03130466666666667</v>
       </c>
       <c r="H13">
-        <v>4.79636545455954</v>
+        <v>0.093914</v>
       </c>
       <c r="I13">
-        <v>0.02505377437962918</v>
+        <v>0.0001627116844554137</v>
       </c>
       <c r="J13">
-        <v>0.02505377437962918</v>
+        <v>0.0001627116844554137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.3636656679166</v>
+        <v>10.38032666666667</v>
       </c>
       <c r="N13">
-        <v>10.3636656679166</v>
+        <v>31.14098</v>
       </c>
       <c r="O13">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="P13">
-        <v>0.1589817218857016</v>
+        <v>0.1443914548190984</v>
       </c>
       <c r="Q13">
-        <v>49.7079279921999</v>
+        <v>0.3249526661911111</v>
       </c>
       <c r="R13">
-        <v>49.7079279921999</v>
+        <v>2.92457399572</v>
       </c>
       <c r="S13">
-        <v>0.003983092190609322</v>
+        <v>2.349417683458326E-05</v>
       </c>
       <c r="T13">
-        <v>0.003983092190609322</v>
+        <v>2.349417683458326E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.79636545455954</v>
+        <v>0.03130466666666667</v>
       </c>
       <c r="H14">
-        <v>4.79636545455954</v>
+        <v>0.093914</v>
       </c>
       <c r="I14">
-        <v>0.02505377437962918</v>
+        <v>0.0001627116844554137</v>
       </c>
       <c r="J14">
-        <v>0.02505377437962918</v>
+        <v>0.0001627116844554137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.522575869387925</v>
+        <v>0.523303</v>
       </c>
       <c r="N14">
-        <v>0.522575869387925</v>
+        <v>1.569909</v>
       </c>
       <c r="O14">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="P14">
-        <v>0.008016469673313122</v>
+        <v>0.007279200733040383</v>
       </c>
       <c r="Q14">
-        <v>2.506464847318662</v>
+        <v>0.01638182598066667</v>
       </c>
       <c r="R14">
-        <v>2.506464847318662</v>
+        <v>0.147436433826</v>
       </c>
       <c r="S14">
-        <v>0.0002008428225163266</v>
+        <v>1.184411012762083E-06</v>
       </c>
       <c r="T14">
-        <v>0.0002008428225163266</v>
+        <v>1.184411012762083E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.79636545455954</v>
+        <v>0.03130466666666667</v>
       </c>
       <c r="H15">
-        <v>4.79636545455954</v>
+        <v>0.093914</v>
       </c>
       <c r="I15">
-        <v>0.02505377437962918</v>
+        <v>0.0001627116844554137</v>
       </c>
       <c r="J15">
-        <v>0.02505377437962918</v>
+        <v>0.0001627116844554137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.344467926508024</v>
+        <v>3.511976</v>
       </c>
       <c r="N15">
-        <v>0.344467926508024</v>
+        <v>10.535928</v>
       </c>
       <c r="O15">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="P15">
-        <v>0.005284240716118369</v>
+        <v>0.04885196200598933</v>
       </c>
       <c r="Q15">
-        <v>1.652194062906841</v>
+        <v>0.1099412380213333</v>
       </c>
       <c r="R15">
-        <v>1.652194062906841</v>
+        <v>0.9894711421919999</v>
       </c>
       <c r="S15">
-        <v>0.0001323901746692797</v>
+        <v>7.948785026946396E-06</v>
       </c>
       <c r="T15">
-        <v>0.0001323901746692797</v>
+        <v>7.948785026946395E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03130466666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.093914</v>
+      </c>
+      <c r="I16">
+        <v>0.0001627116844554137</v>
+      </c>
+      <c r="J16">
+        <v>0.0001627116844554137</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.692542</v>
+      </c>
+      <c r="N16">
+        <v>17.077626</v>
+      </c>
+      <c r="O16">
+        <v>0.07918386842663461</v>
+      </c>
+      <c r="P16">
+        <v>0.07918386842663462</v>
+      </c>
+      <c r="Q16">
+        <v>0.178203129796</v>
+      </c>
+      <c r="R16">
+        <v>1.603828168164</v>
+      </c>
+      <c r="S16">
+        <v>1.288414061339357E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.288414061339357E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.979774333333332</v>
+      </c>
+      <c r="H17">
+        <v>14.939323</v>
+      </c>
+      <c r="I17">
+        <v>0.02588328055405482</v>
+      </c>
+      <c r="J17">
+        <v>0.02588328055405482</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>51.78202533333334</v>
+      </c>
+      <c r="N17">
+        <v>155.346076</v>
+      </c>
+      <c r="O17">
+        <v>0.7202935140152373</v>
+      </c>
+      <c r="P17">
+        <v>0.7202935140152373</v>
+      </c>
+      <c r="Q17">
+        <v>257.8628006829497</v>
+      </c>
+      <c r="R17">
+        <v>2320.765206146548</v>
+      </c>
+      <c r="S17">
+        <v>0.01864355910452241</v>
+      </c>
+      <c r="T17">
+        <v>0.01864355910452241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.979774333333332</v>
+      </c>
+      <c r="H18">
+        <v>14.939323</v>
+      </c>
+      <c r="I18">
+        <v>0.02588328055405482</v>
+      </c>
+      <c r="J18">
+        <v>0.02588328055405482</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.38032666666667</v>
+      </c>
+      <c r="N18">
+        <v>31.14098</v>
+      </c>
+      <c r="O18">
+        <v>0.1443914548190984</v>
+      </c>
+      <c r="P18">
+        <v>0.1443914548190984</v>
+      </c>
+      <c r="Q18">
+        <v>51.69168430628221</v>
+      </c>
+      <c r="R18">
+        <v>465.2251587565399</v>
+      </c>
+      <c r="S18">
+        <v>0.003737324534690854</v>
+      </c>
+      <c r="T18">
+        <v>0.003737324534690854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.979774333333332</v>
+      </c>
+      <c r="H19">
+        <v>14.939323</v>
+      </c>
+      <c r="I19">
+        <v>0.02588328055405482</v>
+      </c>
+      <c r="J19">
+        <v>0.02588328055405482</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.523303</v>
+      </c>
+      <c r="N19">
+        <v>1.569909</v>
+      </c>
+      <c r="O19">
+        <v>0.007279200733040383</v>
+      </c>
+      <c r="P19">
+        <v>0.007279200733040383</v>
+      </c>
+      <c r="Q19">
+        <v>2.605930847956333</v>
+      </c>
+      <c r="R19">
+        <v>23.453377631607</v>
+      </c>
+      <c r="S19">
+        <v>0.0001884095947825657</v>
+      </c>
+      <c r="T19">
+        <v>0.0001884095947825657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.79636545455954</v>
-      </c>
-      <c r="H16">
-        <v>4.79636545455954</v>
-      </c>
-      <c r="I16">
-        <v>0.02505377437962918</v>
-      </c>
-      <c r="J16">
-        <v>0.02505377437962918</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>4.90650227093117</v>
-      </c>
-      <c r="N16">
-        <v>4.90650227093117</v>
-      </c>
-      <c r="O16">
-        <v>0.07526720799992327</v>
-      </c>
-      <c r="P16">
-        <v>0.07526720799992327</v>
-      </c>
-      <c r="Q16">
-        <v>23.5333779950122</v>
-      </c>
-      <c r="R16">
-        <v>23.5333779950122</v>
-      </c>
-      <c r="S16">
-        <v>0.001885727647414698</v>
-      </c>
-      <c r="T16">
-        <v>0.001885727647414698</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.979774333333332</v>
+      </c>
+      <c r="H20">
+        <v>14.939323</v>
+      </c>
+      <c r="I20">
+        <v>0.02588328055405482</v>
+      </c>
+      <c r="J20">
+        <v>0.02588328055405482</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.511976</v>
+      </c>
+      <c r="N20">
+        <v>10.535928</v>
+      </c>
+      <c r="O20">
+        <v>0.04885196200598933</v>
+      </c>
+      <c r="P20">
+        <v>0.04885196200598933</v>
+      </c>
+      <c r="Q20">
+        <v>17.48884794408266</v>
+      </c>
+      <c r="R20">
+        <v>157.399631496744</v>
+      </c>
+      <c r="S20">
+        <v>0.001264449038217048</v>
+      </c>
+      <c r="T20">
+        <v>0.001264449038217048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.979774333333332</v>
+      </c>
+      <c r="H21">
+        <v>14.939323</v>
+      </c>
+      <c r="I21">
+        <v>0.02588328055405482</v>
+      </c>
+      <c r="J21">
+        <v>0.02588328055405482</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.692542</v>
+      </c>
+      <c r="N21">
+        <v>17.077626</v>
+      </c>
+      <c r="O21">
+        <v>0.07918386842663461</v>
+      </c>
+      <c r="P21">
+        <v>0.07918386842663462</v>
+      </c>
+      <c r="Q21">
+        <v>28.347574543022</v>
+      </c>
+      <c r="R21">
+        <v>255.128170887198</v>
+      </c>
+      <c r="S21">
+        <v>0.002049538281841947</v>
+      </c>
+      <c r="T21">
+        <v>0.002049538281841947</v>
       </c>
     </row>
   </sheetData>
